--- a/data/trans_camb/IP16A06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A06-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,9</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 10,75</t>
+          <t>-10,23; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,73</t>
+          <t>-11,7; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 5,91</t>
+          <t>0,0; 6,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 2,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 6,02</t>
+          <t>-5,73; 0,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 1,63</t>
+          <t>-5,76; 0,0</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>79,0%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-26,29%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,9%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-56,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>-71,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-43,08%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1059,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,4; 337,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,94; 142,59</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-1,65</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 0,0</t>
+          <t>-2,82; 10,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 0,0</t>
+          <t>-5,32; 3,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,09</t>
+          <t>-7,69; 5,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,88; 2,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 0,54</t>
+          <t>-3,28; 6,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 0,0</t>
+          <t>-5,84; 1,63</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>79,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-26,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-71,64%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-43,08%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1059,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,4; 337,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,94; 142,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A06-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>1,04</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,26</t>
+          <t>0,0; 9,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,17</t>
+          <t>0,0; 5,29</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,17 +757,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -777,12 +777,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-0,74</t>
         </is>
       </c>
     </row>
@@ -795,17 +795,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 0,0</t>
+          <t>-7,65; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 0,0</t>
+          <t>-6,87; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,09</t>
+          <t>0,0; 5,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 0,54</t>
+          <t>-2,98; 0,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 0,0</t>
+          <t>-4,14; 0,0</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-71,64%</t>
+          <t>-36,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-4,17</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 10,75</t>
+          <t>-17,79; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,73</t>
+          <t>-17,83; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 5,91</t>
+          <t>-14,71; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 2,32</t>
+          <t>-14,71; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 6,02</t>
+          <t>-11,73; -1,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 1,63</t>
+          <t>-11,86; -1,18</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>79,0%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-26,29%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,9%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-56,23%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-43,08%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1059,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1047,19 +1047,19 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,4; 337,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-89,94; 142,59</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,25</t>
+          <t>-2,42; 16,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 1,18</t>
+          <t>-4,87; 9,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,06</t>
+          <t>-7,53; 10,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 0,64</t>
+          <t>-10,94; 4,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,24</t>
+          <t>-2,49; 10,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 0,4</t>
+          <t>-5,83; 4,98</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-37,62%</t>
+          <t>161,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-43,78%</t>
+          <t>43,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,31%</t>
+          <t>43,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-56,94%</t>
+          <t>-30,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-24,02%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-50,53%</t>
+          <t>-0,77%</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-89,66; 184,84</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 240,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,23 +1203,187 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-74,77; 148,45</t>
+          <t>-59,76; 699,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-87,76; 71,15</t>
+          <t>-100,0; 443,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 1,28</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 1,17</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 2,0</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 0,77</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 1,08</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 0,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-37,62%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-43,78%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-3,31%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-56,94%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-24,02%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-50,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-90,5; 197,89</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-76,15; 130,19</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-89,35; 70,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16A06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A06-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,27</t>
+          <t>0,0; 10,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,29</t>
+          <t>0,0; 5,11</t>
         </is>
       </c>
     </row>
@@ -795,17 +795,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 0,0</t>
+          <t>-6,91; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 0,0</t>
+          <t>-8,24; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,0; 5,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,93</t>
+          <t>-2,99; 0,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,0</t>
+          <t>-4,01; 0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 0,0</t>
+          <t>-17,72; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 0,0</t>
+          <t>-18,0; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 0,0</t>
+          <t>-14,81; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 0,0</t>
+          <t>-14,81; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,73; -1,18</t>
+          <t>-11,2; -1,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,86; -1,18</t>
+          <t>-10,75; -1,18</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 16,94</t>
+          <t>-1,98; 15,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 9,56</t>
+          <t>-4,67; 9,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 10,59</t>
+          <t>-7,97; 11,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 4,65</t>
+          <t>-11,24; 4,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 10,2</t>
+          <t>-2,12; 10,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 4,98</t>
+          <t>-4,81; 5,53</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-59,76; 699,69</t>
+          <t>-60,33; 706,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 443,79</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,28</t>
+          <t>-3,68; 1,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,17</t>
+          <t>-3,73; 0,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 2,0</t>
+          <t>-2,46; 2,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,77</t>
+          <t>-3,83; 0,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,08</t>
+          <t>-2,28; 1,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,4</t>
+          <t>-2,83; 0,34</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-90,5; 197,89</t>
+          <t>-100,0; 170,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,15; 130,19</t>
+          <t>-76,4; 127,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-89,35; 70,84</t>
+          <t>-86,26; 64,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A06-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -606,17 +606,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>2,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,11</t>
+          <t>0,0; 5,87</t>
         </is>
       </c>
     </row>
@@ -682,17 +682,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-1,37</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>-1,37</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 0,0</t>
+          <t>0,0; 5,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,08</t>
+          <t>-6,97; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,12; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 0,94</t>
+          <t>-2,96; 0,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 0,0</t>
+          <t>-4,06; 0,0</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-2,9</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,9</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-5,35</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>-5,35</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,9</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 0,0</t>
+          <t>-14,91; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 0,0</t>
+          <t>-14,9; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 0,0</t>
+          <t>-16,15; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 0,0</t>
+          <t>-15,67; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -1,2</t>
+          <t>-11,03; -1,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -1,18</t>
+          <t>-11,58; -1,18</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>5,06</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>1,36</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 15,39</t>
+          <t>-8,0; 11,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 9,42</t>
+          <t>-11,53; 4,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 11,43</t>
+          <t>-2,17; 14,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 4,95</t>
+          <t>-4,73; 11,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 10,41</t>
+          <t>-2,57; 10,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 5,53</t>
+          <t>-5,69; 4,71</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>43,31%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-30,77%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>161,53%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>43,31%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>43,31%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-30,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,33; 706,12</t>
+          <t>-53,03; 807,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,16; 340,14</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>-0,84</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>-0,98</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 1,23</t>
+          <t>-2,76; 2,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 0,87</t>
+          <t>-3,7; 0,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,27</t>
+          <t>-3,32; 1,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,69</t>
+          <t>-3,76; 1,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,11</t>
+          <t>-2,28; 1,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 0,34</t>
+          <t>-2,65; 0,4</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-3,31%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-56,94%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>-37,62%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>-43,78%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-3,31%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-56,94%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 170,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,66; 184,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 240,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,4; 127,66</t>
+          <t>-74,77; 148,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,26; 64,0</t>
+          <t>-87,76; 71,15</t>
         </is>
       </c>
     </row>
